--- a/Practicas/Practica 2/Practica MaaS/Imagenes/MapaDyD.xlsx
+++ b/Practicas/Practica 2/Practica MaaS/Imagenes/MapaDyD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Master\Segundo_Curso\servicios-smart-photos-team\Practicas\Practica 2\Practica MaaS\Imagenes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A6C3FC1-3865-49BC-930B-F882DF26E231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1214EDC-C07B-47D3-A8D8-B97FA8AF4B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,11 +52,6 @@
 Host: 192.168.1.55</t>
   </si>
   <si>
-    <t>Z10: 
-Controladores K8s --&gt; Ready
-Host: 192.168.1.50</t>
-  </si>
-  <si>
     <t>Z19: 
 Worker_5_Z19 --&gt; Ready
 Host: 192.168.1.54</t>
@@ -86,7 +81,13 @@
   </si>
   <si>
     <t>Z36:
-Worker_1_</t>
+Worker_1_Z36 --&gt; ¿?</t>
+  </si>
+  <si>
+    <t>Z10: 
+Controladores K8s --&gt; Ready
+Controlador Juju --&gt; Ready
+Host: 192.168.1.50</t>
   </si>
 </sst>
 </file>
@@ -363,42 +364,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -407,15 +417,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,7 +701,7 @@
   <dimension ref="B1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,76 +715,76 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="2:8" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="2:8" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:8" ht="70.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="17" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>7</v>
+      <c r="H6" s="13" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
